--- a/ig/ch-core/StructureDefinition-ch-core-relatedperson.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-relatedperson.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3152" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2939" uniqueCount="398">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0-ballot</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T06:00:59+00:00</t>
+    <t>2025-12-16T08:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -358,7 +358,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -449,7 +449,7 @@
     <t>citizenship</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {patient-citizenship|5.2.0}
+    <t xml:space="preserve">Extension {patient-citizenship|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -457,6 +457,10 @@
   </si>
   <si>
     <t>The patient's legal status as citizen of a country.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>RelatedPerson.modifierExtension</t>
@@ -573,7 +577,7 @@
     <t>We need to know the relationship with the patient since it influences the interpretation of the information attributed to this person.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/relatedperson-relationshiptype</t>
+    <t>http://hl7.org/fhir/ValueSet/relatedperson-relationshiptype|4.0.1</t>
   </si>
   <si>
     <t>code</t>
@@ -852,10 +856,6 @@
     <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>RelatedPerson.telecom:email.use.value</t>
   </si>
   <si>
@@ -1190,10 +1190,6 @@
     <t>If a related person does not speak the local language, interpreters may be required, so languages spoken and proficiency is an important things to keep track of both for patient and other persons of interest.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:preferred}
-</t>
-  </si>
-  <si>
     <t>LanguageCommunication</t>
   </si>
   <si>
@@ -1254,33 +1250,6 @@
   </si>
   <si>
     <t>preferenceInd</t>
-  </si>
-  <si>
-    <t>RelatedPerson.communication:languageOfCorrespondence</t>
-  </si>
-  <si>
-    <t>languageOfCorrespondence</t>
-  </si>
-  <si>
-    <t>Language of correspondence</t>
-  </si>
-  <si>
-    <t>RelatedPerson.communication:languageOfCorrespondence.id</t>
-  </si>
-  <si>
-    <t>RelatedPerson.communication:languageOfCorrespondence.extension</t>
-  </si>
-  <si>
-    <t>RelatedPerson.communication:languageOfCorrespondence.modifierExtension</t>
-  </si>
-  <si>
-    <t>RelatedPerson.communication:languageOfCorrespondence.language</t>
-  </si>
-  <si>
-    <t>RelatedPerson.communication:languageOfCorrespondence.preferred</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
 </sst>
 </file>
@@ -1595,7 +1564,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM89"/>
+  <dimension ref="A1:AM83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1604,9 +1573,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="62.1953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.30859375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.671875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.31640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -1629,7 +1598,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="58.23828125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="46.8203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.3515625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -2739,7 +2708,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>137</v>
@@ -2756,14 +2725,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2785,16 +2754,16 @@
         <v>131</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>78</v>
@@ -2843,7 +2812,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2869,10 +2838,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2895,17 +2864,17 @@
         <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>78</v>
@@ -2954,7 +2923,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -2969,21 +2938,21 @@
         <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3006,70 +2975,70 @@
         <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="P13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="P13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="R13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3084,10 +3053,10 @@
         <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>78</v>
@@ -3095,10 +3064,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3121,17 +3090,17 @@
         <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>78</v>
@@ -3180,7 +3149,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>86</v>
@@ -3195,21 +3164,21 @@
         <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3232,17 +3201,17 @@
         <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>78</v>
@@ -3270,10 +3239,10 @@
         <v>110</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3291,7 +3260,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3306,21 +3275,21 @@
         <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3343,17 +3312,17 @@
         <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>78</v>
@@ -3402,7 +3371,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3417,21 +3386,21 @@
         <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3454,19 +3423,19 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>78</v>
@@ -3503,7 +3472,7 @@
         <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
@@ -3513,7 +3482,7 @@
         <v>135</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3528,21 +3497,21 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3565,13 +3534,13 @@
         <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3622,7 +3591,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3637,7 +3606,7 @@
         <v>78</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>78</v>
@@ -3648,14 +3617,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3677,13 +3646,13 @@
         <v>131</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3724,7 +3693,7 @@
         <v>134</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>78</v>
@@ -3733,7 +3702,7 @@
         <v>135</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3748,7 +3717,7 @@
         <v>137</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>78</v>
@@ -3759,10 +3728,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3788,10 +3757,10 @@
         <v>106</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3818,13 +3787,13 @@
         <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>78</v>
@@ -3842,7 +3811,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3851,27 +3820,27 @@
         <v>86</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3894,19 +3863,19 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -3955,7 +3924,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -3970,21 +3939,21 @@
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4010,16 +3979,16 @@
         <v>106</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4044,13 +4013,13 @@
         <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>78</v>
@@ -4068,7 +4037,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4083,21 +4052,21 @@
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4120,16 +4089,16 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4179,7 +4148,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4194,21 +4163,21 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4231,13 +4200,13 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4288,7 +4257,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4303,7 +4272,7 @@
         <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>78</v>
@@ -4314,13 +4283,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>78</v>
@@ -4342,19 +4311,19 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4403,7 +4372,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4418,21 +4387,21 @@
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4455,13 +4424,13 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4512,7 +4481,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4527,7 +4496,7 @@
         <v>78</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>78</v>
@@ -4538,14 +4507,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4567,13 +4536,13 @@
         <v>131</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4614,7 +4583,7 @@
         <v>134</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>78</v>
@@ -4623,7 +4592,7 @@
         <v>135</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4638,7 +4607,7 @@
         <v>137</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>78</v>
@@ -4649,10 +4618,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4678,10 +4647,10 @@
         <v>106</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4690,7 +4659,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>78</v>
@@ -4708,13 +4677,13 @@
         <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>78</v>
@@ -4732,7 +4701,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4741,27 +4710,27 @@
         <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4784,19 +4753,19 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -4845,7 +4814,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4860,21 +4829,21 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4900,16 +4869,16 @@
         <v>106</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -4934,13 +4903,13 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>78</v>
@@ -4958,7 +4927,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -4973,21 +4942,21 @@
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5010,13 +4979,13 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5067,7 +5036,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5093,10 +5062,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5174,7 +5143,7 @@
         <v>135</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5200,13 +5169,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="B33" t="s" s="2">
-        <v>263</v>
-      </c>
       <c r="C33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>78</v>
@@ -5228,13 +5197,13 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5285,7 +5254,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5294,7 +5263,7 @@
         <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>269</v>
+        <v>143</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>137</v>
@@ -5337,7 +5306,7 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>272</v>
@@ -5423,7 +5392,7 @@
         <v>274</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5446,16 +5415,16 @@
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5505,7 +5474,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5520,13 +5489,13 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36">
@@ -5534,7 +5503,7 @@
         <v>275</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5557,13 +5526,13 @@
         <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5614,7 +5583,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5629,7 +5598,7 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>78</v>
@@ -5666,13 +5635,13 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5723,7 +5692,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5738,7 +5707,7 @@
         <v>78</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>78</v>
@@ -5756,7 +5725,7 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5778,13 +5747,13 @@
         <v>131</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5825,7 +5794,7 @@
         <v>134</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>78</v>
@@ -5834,7 +5803,7 @@
         <v>135</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -5849,7 +5818,7 @@
         <v>137</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>78</v>
@@ -6087,7 +6056,7 @@
         <v>299</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>300</v>
@@ -6115,16 +6084,16 @@
         <v>301</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6173,7 +6142,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6188,13 +6157,13 @@
         <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42">
@@ -6202,7 +6171,7 @@
         <v>302</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6225,13 +6194,13 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6282,7 +6251,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6297,7 +6266,7 @@
         <v>78</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>78</v>
@@ -6311,11 +6280,11 @@
         <v>303</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6337,13 +6306,13 @@
         <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6384,7 +6353,7 @@
         <v>134</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>78</v>
@@ -6393,7 +6362,7 @@
         <v>135</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6408,7 +6377,7 @@
         <v>137</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>78</v>
@@ -6422,7 +6391,7 @@
         <v>304</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6448,10 +6417,10 @@
         <v>106</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6478,13 +6447,13 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -6502,7 +6471,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6511,19 +6480,19 @@
         <v>86</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45">
@@ -6531,7 +6500,7 @@
         <v>305</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6554,19 +6523,19 @@
         <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -6615,7 +6584,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6630,13 +6599,13 @@
         <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46">
@@ -6644,7 +6613,7 @@
         <v>306</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6670,16 +6639,16 @@
         <v>106</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -6704,13 +6673,13 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>78</v>
@@ -6728,7 +6697,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -6743,13 +6712,13 @@
         <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47">
@@ -6757,7 +6726,7 @@
         <v>307</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6780,13 +6749,13 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6837,7 +6806,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -6866,7 +6835,7 @@
         <v>308</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6944,7 +6913,7 @@
         <v>135</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -6973,7 +6942,7 @@
         <v>309</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>310</v>
@@ -7001,10 +6970,10 @@
         <v>311</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7055,7 +7024,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7064,7 +7033,7 @@
         <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>269</v>
+        <v>143</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>137</v>
@@ -7107,7 +7076,7 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>272</v>
@@ -7193,7 +7162,7 @@
         <v>313</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7216,16 +7185,16 @@
         <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7275,7 +7244,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7290,13 +7259,13 @@
         <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52">
@@ -7304,7 +7273,7 @@
         <v>314</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7327,13 +7296,13 @@
         <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7384,7 +7353,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7399,7 +7368,7 @@
         <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>78</v>
@@ -7436,13 +7405,13 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7493,7 +7462,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -7508,7 +7477,7 @@
         <v>78</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>78</v>
@@ -7526,7 +7495,7 @@
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7548,13 +7517,13 @@
         <v>131</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7595,7 +7564,7 @@
         <v>134</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>78</v>
@@ -7604,7 +7573,7 @@
         <v>135</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -7619,7 +7588,7 @@
         <v>137</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>78</v>
@@ -7857,7 +7826,7 @@
         <v>319</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>320</v>
@@ -7885,16 +7854,16 @@
         <v>321</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -7943,7 +7912,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -7958,13 +7927,13 @@
         <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58">
@@ -7972,7 +7941,7 @@
         <v>322</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7995,13 +7964,13 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8052,7 +8021,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8067,7 +8036,7 @@
         <v>78</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>78</v>
@@ -8081,11 +8050,11 @@
         <v>323</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8107,13 +8076,13 @@
         <v>131</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8154,7 +8123,7 @@
         <v>134</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>78</v>
@@ -8163,7 +8132,7 @@
         <v>135</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8178,7 +8147,7 @@
         <v>137</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>78</v>
@@ -8192,7 +8161,7 @@
         <v>324</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8218,10 +8187,10 @@
         <v>106</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8248,13 +8217,13 @@
         <v>78</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>78</v>
@@ -8272,7 +8241,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8281,19 +8250,19 @@
         <v>86</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61">
@@ -8301,7 +8270,7 @@
         <v>326</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8324,19 +8293,19 @@
         <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -8385,7 +8354,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -8400,13 +8369,13 @@
         <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62">
@@ -8414,7 +8383,7 @@
         <v>327</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8440,16 +8409,16 @@
         <v>106</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>78</v>
@@ -8474,13 +8443,13 @@
         <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>78</v>
@@ -8498,7 +8467,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -8513,13 +8482,13 @@
         <v>98</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63">
@@ -8527,7 +8496,7 @@
         <v>328</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8550,13 +8519,13 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8607,7 +8576,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -8636,7 +8605,7 @@
         <v>329</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8714,7 +8683,7 @@
         <v>135</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -8743,7 +8712,7 @@
         <v>330</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>331</v>
@@ -8771,10 +8740,10 @@
         <v>332</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8825,7 +8794,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -8834,7 +8803,7 @@
         <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>269</v>
+        <v>143</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>137</v>
@@ -8877,7 +8846,7 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L66" t="s" s="2">
         <v>272</v>
@@ -8963,7 +8932,7 @@
         <v>334</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8986,16 +8955,16 @@
         <v>87</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9045,7 +9014,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9060,13 +9029,13 @@
         <v>98</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68">
@@ -9074,7 +9043,7 @@
         <v>335</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9097,13 +9066,13 @@
         <v>87</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9154,7 +9123,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9169,7 +9138,7 @@
         <v>98</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>78</v>
@@ -9206,13 +9175,13 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9263,7 +9232,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -9278,7 +9247,7 @@
         <v>78</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>78</v>
@@ -9296,7 +9265,7 @@
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -9318,13 +9287,13 @@
         <v>131</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9365,7 +9334,7 @@
         <v>134</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>78</v>
@@ -9374,7 +9343,7 @@
         <v>135</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -9389,7 +9358,7 @@
         <v>137</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>78</v>
@@ -9685,7 +9654,7 @@
         <v>78</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y73" t="s" s="2">
         <v>344</v>
@@ -10092,7 +10061,7 @@
         <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>368</v>
@@ -10250,14 +10219,16 @@
         <v>78</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AC78" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>372</v>
@@ -10275,7 +10246,7 @@
         <v>98</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>78</v>
@@ -10286,10 +10257,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10312,13 +10283,13 @@
         <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10369,7 +10340,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -10384,7 +10355,7 @@
         <v>78</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>78</v>
@@ -10395,14 +10366,14 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -10424,13 +10395,13 @@
         <v>131</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -10480,7 +10451,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -10495,7 +10466,7 @@
         <v>137</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>78</v>
@@ -10506,14 +10477,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -10535,16 +10506,16 @@
         <v>131</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M81" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="N81" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>78</v>
@@ -10593,7 +10564,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -10619,10 +10590,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10645,19 +10616,19 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="N82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>78</v>
@@ -10706,7 +10677,7 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>86</v>
@@ -10721,7 +10692,7 @@
         <v>98</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>78</v>
@@ -10732,10 +10703,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10758,19 +10729,19 @@
         <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="N83" t="s" s="2">
+      <c r="O83" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>78</v>
@@ -10819,7 +10790,7 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -10834,686 +10805,12 @@
         <v>98</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="D84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="P84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="O86" s="2"/>
-      <c r="P86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="P87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="P88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="P89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM89" t="s" s="2">
         <v>78</v>
       </c>
     </row>
